--- a/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
+++ b/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4EF30E-48B7-3D4F-9343-D44F8EE224A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C062C62-B7CA-A145-A0D1-AE97802BCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21940" yWindow="0" windowWidth="29260" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,8 +729,8 @@
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI30" sqref="AI30"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
+++ b/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C062C62-B7CA-A145-A0D1-AE97802BCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416BB135-FC9A-5642-B66A-08447BA1BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21940" yWindow="0" windowWidth="29260" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="29280" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>Player</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>#RWB</t>
+  </si>
+  <si>
+    <t>Milan Van Ewijk</t>
   </si>
 </sst>
 </file>
@@ -729,8 +732,8 @@
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4249,6 +4252,113 @@
       </c>
       <c r="AI49" s="4">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="4">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45</v>
+      </c>
+      <c r="G50" s="5">
+        <v>4010</v>
+      </c>
+      <c r="H50" s="4">
+        <v>44.6</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>4</v>
+      </c>
+      <c r="L50" s="4">
+        <v>2</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="R50" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="S50" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="T50" s="4">
+        <v>8</v>
+      </c>
+      <c r="U50" s="4">
+        <v>99</v>
+      </c>
+      <c r="V50" s="4">
+        <v>151</v>
+      </c>
+      <c r="W50" s="4">
+        <v>207</v>
+      </c>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z50">
+        <f>T50/H50</f>
+        <v>0.17937219730941703</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AB50">
+        <f>(U50+V50+W50)/H50</f>
+        <v>10.246636771300448</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>0.76</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">

--- a/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
+++ b/Project 2/Project 2.2/wolves_standard_stats_scouted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416BB135-FC9A-5642-B66A-08447BA1BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39015D5D-0470-934C-A602-EFA39DD64D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="29280" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
   <si>
     <t>Player</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Milan Van Ewijk</t>
+  </si>
+  <si>
+    <t>Jackson Tchatchoua</t>
   </si>
 </sst>
 </file>
@@ -732,8 +735,8 @@
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y50" sqref="Y50"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI6" sqref="Y6:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4359,6 +4362,45 @@
       </c>
       <c r="AI50" s="4">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z51">
+        <v>0.13</v>
+      </c>
+      <c r="AA51">
+        <v>1.71</v>
+      </c>
+      <c r="AB51">
+        <f>2.05+2.5+4.63</f>
+        <v>9.18</v>
+      </c>
+      <c r="AC51">
+        <v>0.6</v>
+      </c>
+      <c r="AD51">
+        <v>0.99</v>
+      </c>
+      <c r="AE51">
+        <v>1.42</v>
+      </c>
+      <c r="AF51">
+        <v>0.4</v>
+      </c>
+      <c r="AG51">
+        <v>0.6</v>
+      </c>
+      <c r="AH51">
+        <v>2.13</v>
+      </c>
+      <c r="AI51">
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
